--- a/Casos de prueba/TC-3.1.xlsx
+++ b/Casos de prueba/TC-3.1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\UADE\Testing de aplicaciones\TPO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FBDB4E-8E99-4C4C-97E0-6B4FF54C0D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A931B-EDC5-42C5-B211-25CB36A21FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="7500" windowHeight="7680" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
+    <workbookView xWindow="4365" yWindow="4365" windowWidth="7500" windowHeight="7680" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Iniciar_sesion" sheetId="1" r:id="rId1"/>
@@ -104,15 +104,6 @@
     <t>Password: 1q2w3e4r5t</t>
   </si>
   <si>
-    <t>Tester: Sam Peters</t>
-  </si>
-  <si>
-    <t>Tester: Jane Williams</t>
-  </si>
-  <si>
-    <t>Tester:</t>
-  </si>
-  <si>
     <t xml:space="preserve">Password </t>
   </si>
   <si>
@@ -183,6 +174,15 @@
   </si>
   <si>
     <t>TC-03</t>
+  </si>
+  <si>
+    <t>Tester: Mike Smith</t>
+  </si>
+  <si>
+    <t>Tester: Jane Walters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tester: Thomas Hamingway </t>
   </si>
 </sst>
 </file>
@@ -668,6 +668,84 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -676,84 +754,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1075,26 +1075,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D6006-EAE3-A54D-886D-7464F21B09D4}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="9" max="9" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="14.125" customWidth="1"/>
+    <col min="14" max="14" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="51"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1104,8 +1111,8 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1172,16 +1179,16 @@
       <c r="E7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="48"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1196,22 +1203,22 @@
       <c r="E8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="47" t="s">
+      <c r="G8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="48"/>
-      <c r="I8" s="47" t="s">
+      <c r="H8" s="45"/>
+      <c r="I8" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="48"/>
-      <c r="K8" s="47" t="s">
+      <c r="J8" s="45"/>
+      <c r="K8" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="47" t="s">
+      <c r="L8" s="45"/>
+      <c r="M8" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="48"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1226,55 +1233,55 @@
       <c r="E9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="48"/>
-      <c r="I9" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="48"/>
+      <c r="G9" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="45"/>
+      <c r="I9" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>3</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D10" s="18">
         <v>3</v>
       </c>
       <c r="E10" s="17"/>
       <c r="G10" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1286,252 +1293,253 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11" s="22"/>
       <c r="N11" s="23" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="21"/>
       <c r="E12" s="9"/>
       <c r="G12" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M12" s="22"/>
       <c r="N12" s="23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="G13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="G13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>33</v>
-      </c>
       <c r="K13" s="22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M13" s="22"/>
       <c r="N13" s="23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-      <c r="G14" s="32"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="G14" s="29"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="32"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="17"/>
-      <c r="K14" s="32"/>
+      <c r="K14" s="29"/>
       <c r="L14" s="17"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="17"/>
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="32"/>
+      <c r="A15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="29"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="32"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="17"/>
-      <c r="K15" s="32"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="32"/>
+      <c r="M15" s="29"/>
       <c r="N15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F16" s="9"/>
-      <c r="G16" s="32"/>
+      <c r="G16" s="29"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="32"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="17"/>
-      <c r="K16" s="32"/>
+      <c r="K16" s="29"/>
       <c r="L16" s="17"/>
-      <c r="M16" s="32"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="38"/>
+    </row>
+    <row r="18" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="39">
+        <v>1</v>
+      </c>
+      <c r="B18" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="C18" s="41"/>
+      <c r="D18" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40" t="s">
+      <c r="E18" s="41"/>
+      <c r="G18" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="41"/>
-    </row>
-    <row r="18" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
-        <v>1</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="H18" s="42"/>
+      <c r="I18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="42"/>
+    </row>
+    <row r="19" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="39">
+        <v>2</v>
+      </c>
+      <c r="B19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="43" t="s">
+      <c r="C19" s="41"/>
+      <c r="D19" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="44"/>
-      <c r="G18" s="45" t="s">
+      <c r="E19" s="41"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" s="45"/>
-    </row>
-    <row r="19" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="42">
-        <v>2</v>
-      </c>
-      <c r="B19" s="43" t="s">
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+    </row>
+    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="39">
+        <v>3</v>
+      </c>
+      <c r="B20" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="43" t="s">
+      <c r="C20" s="39"/>
+      <c r="D20" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="44"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="46"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-    </row>
-    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="42">
-        <v>3</v>
-      </c>
-      <c r="B20" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E20" s="42"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="46"/>
+      <c r="E20" s="39"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="46"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="46"/>
-      <c r="K22" s="46"/>
-      <c r="L22" s="46"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:N9"/>

--- a/Casos de prueba/TC-3.1.xlsx
+++ b/Casos de prueba/TC-3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342A931B-EDC5-42C5-B211-25CB36A21FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832D3F4-CF2B-4712-A2E9-FCBAF28D41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4365" yWindow="4365" windowWidth="7500" windowHeight="7680" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Iniciar_sesion" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Verify customer can login after entering valid userid and password</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
@@ -155,18 +152,12 @@
     <t>Site should open</t>
   </si>
   <si>
-    <t>Defects Created</t>
-  </si>
-  <si>
     <t>Enter Userid &amp; Password</t>
   </si>
   <si>
     <t>Credential can be entered</t>
   </si>
   <si>
-    <t>DF-001: Home page is not displayed upon logging in</t>
-  </si>
-  <si>
     <t>Click Submit</t>
   </si>
   <si>
@@ -176,20 +167,26 @@
     <t>TC-03</t>
   </si>
   <si>
-    <t>Tester: Mike Smith</t>
-  </si>
-  <si>
-    <t>Tester: Jane Walters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tester: Thomas Hamingway </t>
+    <t>Tester: Camila Sturlesi</t>
+  </si>
+  <si>
+    <t>Tester: Martina Degui</t>
+  </si>
+  <si>
+    <t>Tester: Sebastian Deina</t>
+  </si>
+  <si>
+    <t>Verify customer can login after entering valid user and password</t>
+  </si>
+  <si>
+    <t>Tester:  Lucas Argerich</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -273,13 +270,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -304,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -588,6 +578,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -596,7 +599,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -719,10 +722,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
@@ -746,14 +752,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1073,14 +1073,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D6006-EAE3-A54D-886D-7464F21B09D4}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="4" width="23.625" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="9" max="9" width="14.75" customWidth="1"/>
     <col min="11" max="11" width="13.875" customWidth="1"/>
@@ -1093,15 +1094,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="48"/>
+      <c r="E1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1111,8 +1112,8 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1179,16 +1180,16 @@
       <c r="E7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="45"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
@@ -1203,22 +1204,22 @@
       <c r="E8" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="44" t="s">
+      <c r="H8" s="46"/>
+      <c r="I8" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="44" t="s">
+      <c r="J8" s="46"/>
+      <c r="K8" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="45"/>
-      <c r="M8" s="44" t="s">
+      <c r="L8" s="46"/>
+      <c r="M8" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="45"/>
+      <c r="N8" s="46"/>
     </row>
     <row r="9" spans="1:14" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
@@ -1233,20 +1234,22 @@
       <c r="E9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="44" t="s">
+      <c r="G9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="47"/>
+      <c r="K9" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="46"/>
+      <c r="M9" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9" s="45"/>
+      <c r="N9" s="46"/>
     </row>
     <row r="10" spans="1:14" ht="39" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
@@ -1310,7 +1313,9 @@
       <c r="L11" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M11" s="22"/>
+      <c r="M11" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="N11" s="23" t="s">
         <v>27</v>
       </c>
@@ -1336,7 +1341,9 @@
       <c r="L12" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="22"/>
+      <c r="M12" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="N12" s="23" t="s">
         <v>27</v>
       </c>
@@ -1345,12 +1352,12 @@
       <c r="A13" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="53"/>
+      <c r="B13" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="44"/>
       <c r="G13" s="22" t="s">
         <v>25</v>
       </c>
@@ -1361,7 +1368,7 @@
         <v>25</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K13" s="22" t="s">
         <v>25</v>
@@ -1369,7 +1376,9 @@
       <c r="L13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="22"/>
+      <c r="M13" s="22" t="s">
+        <v>25</v>
+      </c>
       <c r="N13" s="23" t="s">
         <v>27</v>
       </c>
@@ -1391,15 +1400,15 @@
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="33" t="s">
         <v>32</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>33</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="17"/>
@@ -1421,127 +1430,62 @@
       <c r="M16" s="29"/>
       <c r="N16" s="17"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="38"/>
     </row>
-    <row r="18" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A18" s="39">
         <v>1</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="41"/>
-      <c r="G18" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="42"/>
-    </row>
-    <row r="19" spans="1:14" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="39">
         <v>2</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="41"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-    </row>
-    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E20" s="39"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43"/>
-      <c r="N20" s="43"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43"/>
-      <c r="N21" s="43"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="43"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="43"/>
-      <c r="H23" s="43"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43"/>
-      <c r="N23" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="D2:E2"/>
@@ -1550,6 +1494,8 @@
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="M8:N8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Casos de prueba/TC-3.1.xlsx
+++ b/Casos de prueba/TC-3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5832D3F4-CF2B-4712-A2E9-FCBAF28D41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5833CABB-8DE9-4DA9-8094-65679C4A4B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
+    <workbookView minimized="1" xWindow="1380" yWindow="2010" windowWidth="7500" windowHeight="7680" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Iniciar_sesion" sheetId="1" r:id="rId1"/>
@@ -134,9 +134,6 @@
     <t>Automation Status</t>
   </si>
   <si>
-    <t>Not Automated</t>
-  </si>
-  <si>
     <t>Step #</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>Tester:  Lucas Argerich</t>
+  </si>
+  <si>
+    <t>Automated</t>
   </si>
 </sst>
 </file>
@@ -737,20 +737,20 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D6006-EAE3-A54D-886D-7464F21B09D4}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:N9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,15 +1094,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1112,8 +1112,8 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1183,12 +1183,12 @@
       <c r="G7" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
       <c r="N7" s="46"/>
     </row>
     <row r="8" spans="1:14" ht="35.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1235,19 +1235,19 @@
         <v>21</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="51"/>
+      <c r="K9" s="52" t="s">
         <v>44</v>
-      </c>
-      <c r="J9" s="47"/>
-      <c r="K9" s="52" t="s">
-        <v>45</v>
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N9" s="46"/>
     </row>
@@ -1353,7 +1353,7 @@
         <v>28</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
@@ -1408,7 +1408,7 @@
         <v>31</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="17"/>
@@ -1432,14 +1432,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="35" t="s">
         <v>33</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>34</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="38"/>
     </row>
@@ -1448,11 +1448,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="41"/>
     </row>
@@ -1461,24 +1461,24 @@
         <v>2</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="41"/>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="39">
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="39"/>
     </row>

--- a/Casos de prueba/TC-3.1.xlsx
+++ b/Casos de prueba/TC-3.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5833CABB-8DE9-4DA9-8094-65679C4A4B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673DAB5-5AFF-4291-A815-72B0776FF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1380" yWindow="2010" windowWidth="7500" windowHeight="7680" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
   </bookViews>
   <sheets>
     <sheet name="TC-Iniciar_sesion" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Access to Chrome Browser</t>
   </si>
   <si>
-    <t>Email: cjonson@uade.edu.ar</t>
-  </si>
-  <si>
     <t>Regression 1</t>
   </si>
   <si>
@@ -98,15 +95,6 @@
     <t>Regression 4</t>
   </si>
   <si>
-    <t>valid email</t>
-  </si>
-  <si>
-    <t>Password: 1q2w3e4r5t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password </t>
-  </si>
-  <si>
     <t>Actual Results</t>
   </si>
   <si>
@@ -125,9 +113,6 @@
     <t>Test Scenario</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>User Stories covered</t>
   </si>
   <si>
@@ -180,6 +165,15 @@
   </si>
   <si>
     <t>Automated</t>
+  </si>
+  <si>
+    <t>Email: sample@sample.com</t>
+  </si>
+  <si>
+    <t>Password: sample</t>
+  </si>
+  <si>
+    <t>created account</t>
   </si>
 </sst>
 </file>
@@ -1075,8 +1069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{388D6006-EAE3-A54D-886D-7464F21B09D4}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1094,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1202,22 +1196,22 @@
         <v>1</v>
       </c>
       <c r="E8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="45" t="s">
         <v>15</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>16</v>
       </c>
       <c r="H8" s="46"/>
       <c r="I8" s="45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="46"/>
       <c r="K8" s="45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L8" s="46"/>
       <c r="M8" s="45" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N8" s="46"/>
     </row>
@@ -1226,28 +1220,28 @@
         <v>2</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="G9" s="45" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H9" s="46"/>
       <c r="I9" s="45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J9" s="51"/>
       <c r="K9" s="52" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L9" s="46"/>
       <c r="M9" s="45" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="N9" s="46"/>
     </row>
@@ -1255,36 +1249,34 @@
       <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
-        <v>22</v>
-      </c>
+      <c r="B10" s="17"/>
       <c r="D10" s="18">
         <v>3</v>
       </c>
       <c r="E10" s="17"/>
       <c r="G10" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J10" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K10" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N10" s="20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,91 +1288,91 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H11" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I11" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K11" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L11" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N11" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="21"/>
       <c r="E12" s="9"/>
       <c r="G12" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H12" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J12" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M12" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N12" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="44"/>
       <c r="G13" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I13" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="K13" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N13" s="23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
@@ -1400,15 +1392,15 @@
     </row>
     <row r="15" spans="1:14" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
       <c r="D15" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E15" s="33" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="17"/>
@@ -1432,14 +1424,14 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E17" s="38"/>
     </row>
@@ -1448,11 +1440,11 @@
         <v>1</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E18" s="41"/>
     </row>
@@ -1461,11 +1453,11 @@
         <v>2</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="40" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E19" s="41"/>
     </row>
@@ -1474,11 +1466,11 @@
         <v>3</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C20" s="39"/>
       <c r="D20" s="39" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E20" s="39"/>
     </row>

--- a/Casos de prueba/TC-3.1.xlsx
+++ b/Casos de prueba/TC-3.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\TestingAplicaciones-HDP-TPO\Casos de prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B673DAB5-5AFF-4291-A815-72B0776FF32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E441810E-84B8-4480-BA31-E5B29B00EE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B3320B95-B7CB-A64C-8C41-9E4F487A4DA1}"/>
   </bookViews>
